--- a/250217_item_scale_info.xlsx
+++ b/250217_item_scale_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\peer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE6BFBD-5CAC-469B-872D-3596AC817FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2DD125-8D4A-4FBD-A420-4CD466DF9872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26D96E56-99D9-4C13-87C7-EAE8740F8D53}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="척도정보" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">문항정보!$A$1:$D$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">문항정보!$A$1:$D$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="179">
   <si>
     <t>척도</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SR51. 학습할 때 학생끼리 서로 돕는 것이 좋다고 생각한다.   SR52. 나는 다른 학생보다 더 잘하고 싶다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SR53. 나는 내가 다른 학생보다 더 좋은 점수를 받기 위해서 공부한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -498,10 +494,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SR72. 부모님은 내가 잘못하면 바로 혼내신다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SR72. 부모님은 내가 자신을 신경쓰이게 한다고 말하신다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -748,6 +740,18 @@
   </si>
   <si>
     <t>PN14.가장 친한 친구는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR51. 학습할 때 학생끼리 서로 돕는 것이 좋다고 생각한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR52. 나는 다른 학생보다 더 잘하고 싶다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR71. 부모님은 내가 잘못하면 바로 혼내신다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -906,6 +910,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,15 +930,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE663D0-EE0F-4DA7-AAC8-FF7E94DD76AC}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1286,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1300,9 +1304,9 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="17">
+        <v>174</v>
+      </c>
+      <c r="D2" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1314,9 +1318,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1326,9 +1330,9 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1338,9 +1342,9 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1350,9 +1354,9 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1362,9 +1366,9 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1374,9 +1378,9 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1386,9 +1390,9 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1398,81 +1402,81 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -1482,9 +1486,9 @@
         <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="18">
+        <v>173</v>
+      </c>
+      <c r="D17" s="14">
         <v>2</v>
       </c>
     </row>
@@ -1496,9 +1500,9 @@
         <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>173</v>
+      </c>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -1508,9 +1512,9 @@
         <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="18"/>
+        <v>173</v>
+      </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1520,93 +1524,93 @@
         <v>28</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="18"/>
+        <v>173</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1616,9 +1620,9 @@
         <v>37</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -1628,9 +1632,9 @@
         <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -1640,9 +1644,9 @@
         <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -1652,9 +1656,9 @@
         <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -1664,9 +1668,9 @@
         <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -1676,9 +1680,9 @@
         <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
@@ -1688,9 +1692,9 @@
         <v>43</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -1700,9 +1704,9 @@
         <v>45</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -1712,9 +1716,9 @@
         <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -1724,9 +1728,9 @@
         <v>47</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
@@ -1736,9 +1740,9 @@
         <v>48</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -1748,9 +1752,9 @@
         <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
@@ -1760,9 +1764,9 @@
         <v>50</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -1772,9 +1776,9 @@
         <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -1784,9 +1788,9 @@
         <v>52</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -1796,9 +1800,9 @@
         <v>53</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -1808,9 +1812,9 @@
         <v>54</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
@@ -1820,9 +1824,9 @@
         <v>56</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="19">
+        <v>171</v>
+      </c>
+      <c r="D45" s="15">
         <v>6</v>
       </c>
     </row>
@@ -1834,9 +1838,9 @@
         <v>57</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" s="19"/>
+        <v>171</v>
+      </c>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
@@ -1846,9 +1850,9 @@
         <v>58</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" s="19"/>
+        <v>171</v>
+      </c>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
@@ -1858,9 +1862,9 @@
         <v>59</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" s="19"/>
+        <v>171</v>
+      </c>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
@@ -1870,9 +1874,9 @@
         <v>61</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="14">
+        <v>171</v>
+      </c>
+      <c r="D49" s="17">
         <v>3</v>
       </c>
     </row>
@@ -1884,9 +1888,9 @@
         <v>62</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
@@ -1896,9 +1900,9 @@
         <v>63</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -1908,9 +1912,9 @@
         <v>64</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
@@ -1920,9 +1924,9 @@
         <v>66</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
@@ -1932,9 +1936,9 @@
         <v>69</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
@@ -1944,9 +1948,9 @@
         <v>70</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -1956,9 +1960,9 @@
         <v>71</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
@@ -1968,9 +1972,9 @@
         <v>72</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
@@ -1980,9 +1984,9 @@
         <v>73</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D58" s="17"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
@@ -1992,9 +1996,9 @@
         <v>75</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="14">
+        <v>171</v>
+      </c>
+      <c r="D59" s="17">
         <v>3</v>
       </c>
     </row>
@@ -2006,9 +2010,9 @@
         <v>76</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
@@ -2018,9 +2022,9 @@
         <v>77</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D61" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
@@ -2030,9 +2034,9 @@
         <v>78</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D62" s="17"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
@@ -2042,9 +2046,9 @@
         <v>79</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D63" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D63" s="17"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
@@ -2054,788 +2058,800 @@
         <v>80</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D64" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D65" s="17"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D66" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D66" s="17"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D67" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D67" s="17"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D68" s="17"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D69" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D69" s="17"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D70" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D70" s="17"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D71" s="17"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="D72" s="17"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D73" s="8">
+      <c r="B74" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="8">
         <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" s="15"/>
+        <v>174</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D76" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D77" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="D78" s="18"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D79" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="D79" s="18"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>103</v>
-      </c>
+      <c r="D80" s="18"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D81" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D82" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D83" s="18"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D84" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D85" s="18"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D86" s="18"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D87" s="18"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D88" s="18"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D89" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D89" s="18"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D90" s="18"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D91" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D91" s="18"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D92" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D92" s="18"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D93" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D93" s="18"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D94" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D94" s="18"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D95" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="D95" s="18"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D96" s="13">
-        <v>7</v>
-      </c>
+      <c r="A96" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" s="18"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D97" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D97" s="16">
+        <v>7</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D98" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D99" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D99" s="16"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D100" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D100" s="16"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D101" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D101" s="16"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D102" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D102" s="16"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D103" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D103" s="16"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="C104" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D104" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D104" s="16"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D105" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D106" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D106" s="16"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D107" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D108" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D108" s="16"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D109" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D109" s="16"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D110" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D110" s="16"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D111" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D111" s="16"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D112" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D112" s="16"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D113" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D113" s="16"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D114" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D114" s="16"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D115" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D116" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D116" s="16"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D117" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D117" s="16"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D118" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D118" s="16"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D119" s="13">
-        <v>7</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D119" s="16"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D120" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D120" s="16">
+        <v>7</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="C121" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D121" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D121" s="16"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D122" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D122" s="16"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D123" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D123" s="16"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D124" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D124" s="16"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D125" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D125" s="16"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D126" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D126" s="16"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D127" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="D127" s="16"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D127" xr:uid="{7CE663D0-EE0F-4DA7-AAC8-FF7E94DD76AC}"/>
+  <autoFilter ref="A1:D128" xr:uid="{7CE663D0-EE0F-4DA7-AAC8-FF7E94DD76AC}"/>
   <mergeCells count="9">
     <mergeCell ref="D2:D16"/>
     <mergeCell ref="D17:D44"/>
     <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D96:D118"/>
-    <mergeCell ref="D119:D127"/>
+    <mergeCell ref="D97:D119"/>
+    <mergeCell ref="D120:D128"/>
     <mergeCell ref="D49:D58"/>
-    <mergeCell ref="D59:D72"/>
-    <mergeCell ref="D74:D79"/>
-    <mergeCell ref="D80:D95"/>
+    <mergeCell ref="D59:D73"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="D81:D96"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2866,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2874,10 +2890,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="20">
@@ -2886,40 +2902,40 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="20"/>
